--- a/results/cnn_results.xlsx
+++ b/results/cnn_results.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holstein\Documents\ifcbcnn\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750410B6-F71A-49C1-8D7F-2AB00694134A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3384845-7BDE-4060-AB54-C77882271E00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="2565" windowWidth="18900" windowHeight="11055" xr2:uid="{6A2D0284-F765-4399-85B7-D7DCB9AA0D56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{6A2D0284-F765-4399-85B7-D7DCB9AA0D56}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Raw Data'!$A$1:$R$95</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -404,7 +407,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +443,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -449,7 +467,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -476,9 +494,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -491,9 +507,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -504,9 +529,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -517,42 +540,355 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -562,6 +898,52 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EC7AD220-7E04-450B-9532-FB2F576B13F8}" name="Raw_Data" displayName="Raw_Data" ref="A1:R95" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="15" tableBorderDxfId="16">
+  <autoFilter ref="A1:R95" xr:uid="{45F6A0B8-3288-4676-8510-D462DBEE46FE}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{C4D8D0BB-4474-4F49-8C40-063D1E73B8CD}" name="ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{135FE0CC-90F6-4553-B3F1-DDE867AFFC42}" name="Date" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{67219C85-85C9-47FB-A5F3-7131ACE0CA39}" name="Inputs" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{E8E2C6E9-2E8C-41BB-BDB8-F842B0D04400}" name="Training Data" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{26C6A4E9-E8B5-4650-AB5E-3770EE9CAC64}" name="Verification Data" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{3D6E3D63-1D84-44AC-A977-D10DC8325707}" name="Preprocessing" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{4F698816-41FC-42D3-A5AD-BA0F401ECCCB}" name="Img Size" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{6B6ECC8D-B2C8-4CDC-B7A4-EF01609A7D76}" name="Rotation" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{6D22A94B-E341-46E6-8879-6028EE98E745}" name="Small Class" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{036479D2-7690-4E4B-90E7-8656DEBECD1B}" name="Epoch" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{0AAF93B1-D44E-45F0-AB07-A60D04161DD9}" name="Iteration"/>
+    <tableColumn id="12" xr3:uid="{D6A4EBF9-78FD-4CD7-BB89-21FFCC702518}" name="Time Elapsed"/>
+    <tableColumn id="13" xr3:uid="{A77E11D8-9C06-426C-8CF3-2D9FBBA36831}" name="Minibatch Accuracy" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="14" xr3:uid="{53785A39-EA2C-451C-B279-3C41AFD6742F}" name="Validation Accuracy" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="15" xr3:uid="{9F583D03-FD17-4632-B789-1062AD7495A5}" name="Mini-batch Loss"/>
+    <tableColumn id="16" xr3:uid="{4D049FB0-BB67-4DBF-853A-98EC4D612D48}" name="Validation Loss"/>
+    <tableColumn id="17" xr3:uid="{B69D6D90-EA84-4C54-81E0-E0055D24EE67}" name="Base Learning Rate" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{2939354D-336A-497E-A866-E781282268FD}" name="Final Accuracy" dataDxfId="1" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -863,107 +1245,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0C379B-94DA-4D2D-90AF-D48D6A216425}">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="20.7109375" style="10" customWidth="1"/>
-    <col min="6" max="7" width="9.85546875" style="10" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="7" style="14" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
-    <col min="13" max="17" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" style="9" customWidth="1"/>
+    <col min="15" max="16" width="20.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="6">
         <v>51</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="6">
         <v>180</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="6">
         <v>126</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="7">
         <v>1</v>
       </c>
       <c r="K2" s="1">
@@ -972,10 +1361,10 @@
       <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="9">
         <v>0.34379999999999999</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="9">
         <v>0.71130000000000004</v>
       </c>
       <c r="O2" s="1">
@@ -984,52 +1373,52 @@
       <c r="P2" s="1">
         <v>0.92449999999999999</v>
       </c>
-      <c r="Q2" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="R2" s="6"/>
+      <c r="Q2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="6">
         <v>51</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="6">
         <v>180</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="6">
         <v>126</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="7">
         <v>4</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="4">
         <v>4</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="5">
         <v>1.273148148148148E-4</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="9">
         <v>0.83589999999999998</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="9">
         <v>0.8639</v>
       </c>
       <c r="O3" s="1">
@@ -1041,51 +1430,51 @@
       <c r="Q3" s="2">
         <v>0.01</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="10">
         <v>0.86170000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="6">
         <v>51</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="6">
         <v>63</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="7">
         <v>1</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>0</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="9">
         <v>0.2266</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="9">
         <v>0.22220000000000001</v>
       </c>
       <c r="O4" s="1">
@@ -1094,51 +1483,51 @@
       <c r="P4" s="1">
         <v>1.5693999999999999</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="6">
         <v>51</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="6">
         <v>63</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="7">
         <v>4</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <v>4</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="5">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="9">
         <v>0.53910000000000002</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="9">
         <v>0.67559999999999998</v>
       </c>
       <c r="O5" s="1">
@@ -1150,51 +1539,51 @@
       <c r="Q5" s="2">
         <v>0.01</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="10">
         <v>0.68</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="F6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="6">
         <v>51</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="H6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="6">
         <v>252</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="7">
         <v>1</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="9">
         <v>0.27339999999999998</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="9">
         <v>0.34510000000000002</v>
       </c>
       <c r="O6" s="1">
@@ -1203,51 +1592,51 @@
       <c r="P6" s="1">
         <v>1.7165999999999999</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="F7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="6">
         <v>51</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="H7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="6">
         <v>252</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="7">
         <v>4</v>
       </c>
       <c r="K7" s="1">
         <v>12</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="5">
         <v>2.3148148148148147E-5</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="9">
         <v>0.6875</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="9">
         <v>0.71789999999999998</v>
       </c>
       <c r="O7" s="1">
@@ -1259,51 +1648,51 @@
       <c r="Q7" s="2">
         <v>0.01</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="10">
         <v>0.72509999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="6">
         <v>51</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="10">
+      <c r="H8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="6">
         <v>252</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="7">
         <v>1</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <v>0</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="9">
         <v>0.1875</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="9">
         <v>0.20630000000000001</v>
       </c>
       <c r="O8" s="1">
@@ -1312,51 +1701,51 @@
       <c r="P8" s="1">
         <v>1.7241</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="12">
         <v>4</v>
       </c>
-      <c r="B9" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="F9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="6">
         <v>51</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="10">
+      <c r="H9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="6">
         <v>252</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="7">
         <v>4</v>
       </c>
       <c r="K9" s="1">
         <v>12</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="9">
         <v>0.6875</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="9">
         <v>0.78539999999999999</v>
       </c>
       <c r="O9" s="1">
@@ -1368,39 +1757,39 @@
       <c r="Q9" s="2">
         <v>0.01</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="10">
         <v>0.73629999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="12">
         <v>5</v>
       </c>
-      <c r="B10" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="10">
-        <v>120</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="10">
+      <c r="F10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="6">
+        <v>120</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="6">
         <v>292</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="7">
         <v>1</v>
       </c>
       <c r="K10" s="1">
@@ -1409,10 +1798,10 @@
       <c r="L10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="9">
         <v>0.1328</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="9">
         <v>0.1027</v>
       </c>
       <c r="O10" s="1">
@@ -1421,51 +1810,51 @@
       <c r="P10" s="1">
         <v>8.5015000000000001</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="10">
-        <v>120</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="10">
+      <c r="F11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="6">
+        <v>120</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="6">
         <v>292</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="7">
         <v>4</v>
       </c>
       <c r="K11" s="1">
         <v>28</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <v>2.6620370370370372E-4</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="9">
         <v>0.80469999999999997</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="9">
         <v>0.68589999999999995</v>
       </c>
       <c r="O11" s="1">
@@ -1477,39 +1866,39 @@
       <c r="Q11" s="2">
         <v>0.01</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="10">
         <v>0.73629999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="10">
-        <v>120</v>
-      </c>
-      <c r="H12" s="10">
+      <c r="F12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="6">
+        <v>120</v>
+      </c>
+      <c r="H12" s="6">
         <v>180</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="6">
         <v>146</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="8">
         <v>1</v>
       </c>
       <c r="K12" s="1">
@@ -1518,10 +1907,10 @@
       <c r="L12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="9">
         <v>0.1406</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="9">
         <v>7.7999999999999996E-3</v>
       </c>
       <c r="O12" s="1">
@@ -1530,51 +1919,51 @@
       <c r="P12" s="1">
         <v>4.6787999999999998</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="12">
         <v>6</v>
       </c>
-      <c r="B13" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="10">
-        <v>120</v>
-      </c>
-      <c r="H13" s="10">
+      <c r="F13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="6">
+        <v>120</v>
+      </c>
+      <c r="H13" s="6">
         <v>180</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="6">
         <v>146</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="8">
         <v>4</v>
       </c>
       <c r="K13" s="1">
         <v>12</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="5">
         <v>1.273148148148148E-4</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="9">
         <v>0.59379999999999999</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="9">
         <v>0.4632</v>
       </c>
       <c r="O13" s="1">
@@ -1586,51 +1975,51 @@
       <c r="Q13" s="2">
         <v>0.01</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="10">
         <v>0.49909999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="12">
         <v>7</v>
       </c>
-      <c r="B14" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="10">
-        <v>120</v>
-      </c>
-      <c r="H14" s="10">
+      <c r="F14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="6">
+        <v>120</v>
+      </c>
+      <c r="H14" s="6">
         <v>180</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="6">
         <v>1338</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="8">
         <v>1</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="9">
         <v>0.125</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="9">
         <v>0.13880000000000001</v>
       </c>
       <c r="O14" s="1">
@@ -1639,51 +2028,51 @@
       <c r="P14" s="1">
         <v>6.0915999999999997</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="12">
         <v>7</v>
       </c>
-      <c r="B15" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="10">
-        <v>120</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="F15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="6">
+        <v>120</v>
+      </c>
+      <c r="H15" s="6">
         <v>180</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="6">
         <v>1338</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="8">
         <v>1</v>
       </c>
       <c r="K15" s="1">
         <v>30</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="9">
         <v>0.59379999999999999</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="9">
         <v>0.50729999999999997</v>
       </c>
       <c r="O15" s="1">
@@ -1692,51 +2081,51 @@
       <c r="P15" s="1">
         <v>1.3794999999999999</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="12">
         <v>7</v>
       </c>
-      <c r="B16" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="10">
-        <v>120</v>
-      </c>
-      <c r="H16" s="10">
+      <c r="F16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="6">
+        <v>120</v>
+      </c>
+      <c r="H16" s="6">
         <v>180</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="6">
         <v>1338</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="8">
         <v>2</v>
       </c>
       <c r="K16" s="1">
         <v>50</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="9">
         <v>0.75</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O16" s="1">
@@ -1745,51 +2134,51 @@
       <c r="P16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="12">
         <v>7</v>
       </c>
-      <c r="B17" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="10">
-        <v>120</v>
-      </c>
-      <c r="H17" s="10">
+      <c r="F17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="6">
+        <v>120</v>
+      </c>
+      <c r="H17" s="6">
         <v>180</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="6">
         <v>1338</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="8">
         <v>2</v>
       </c>
       <c r="K17" s="1">
         <v>60</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="9">
         <v>0.83589999999999998</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="9">
         <v>0.7389</v>
       </c>
       <c r="O17" s="1">
@@ -1798,51 +2187,51 @@
       <c r="P17" s="1">
         <v>0.83720000000000006</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="12">
         <v>7</v>
       </c>
-      <c r="B18" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="10">
-        <v>120</v>
-      </c>
-      <c r="H18" s="10">
+      <c r="F18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="6">
+        <v>120</v>
+      </c>
+      <c r="H18" s="6">
         <v>180</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="6">
         <v>1338</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="8">
         <v>3</v>
       </c>
       <c r="K18" s="1">
         <v>90</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="9">
         <v>0.86719999999999997</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="9">
         <v>0.77839999999999998</v>
       </c>
       <c r="O18" s="1">
@@ -1851,51 +2240,51 @@
       <c r="P18" s="1">
         <v>0.8306</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="12">
         <v>7</v>
       </c>
-      <c r="B19" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="10">
-        <v>120</v>
-      </c>
-      <c r="H19" s="10">
+      <c r="F19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="6">
+        <v>120</v>
+      </c>
+      <c r="H19" s="6">
         <v>180</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="6">
         <v>1338</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="8">
         <v>4</v>
       </c>
       <c r="K19" s="1">
         <v>100</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="9">
         <v>0.90629999999999999</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O19" s="1">
@@ -1904,51 +2293,51 @@
       <c r="P19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="12">
         <v>7</v>
       </c>
-      <c r="B20" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="10">
-        <v>120</v>
-      </c>
-      <c r="H20" s="10">
+      <c r="F20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="6">
+        <v>120</v>
+      </c>
+      <c r="H20" s="6">
         <v>180</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="6">
         <v>1338</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="8">
         <v>4</v>
       </c>
       <c r="K20" s="1">
         <v>120</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="9">
         <v>0.83589999999999998</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="9">
         <v>0.76060000000000005</v>
       </c>
       <c r="O20" s="1">
@@ -1957,51 +2346,51 @@
       <c r="P20" s="1">
         <v>0.78259999999999996</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="12">
         <v>7</v>
       </c>
-      <c r="B21" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="10">
-        <v>120</v>
-      </c>
-      <c r="H21" s="10">
+      <c r="F21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="6">
+        <v>120</v>
+      </c>
+      <c r="H21" s="6">
         <v>180</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="6">
         <v>1338</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="8">
         <v>4</v>
       </c>
       <c r="K21" s="1">
         <v>124</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="9">
         <v>0.84379999999999999</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="9">
         <v>0.72270000000000001</v>
       </c>
       <c r="O21" s="1">
@@ -2010,42 +2399,42 @@
       <c r="P21" s="1">
         <v>0.87029999999999996</v>
       </c>
-      <c r="Q21" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="R21" s="6">
+      <c r="Q21" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="R21" s="10">
         <v>0.82410000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="12">
         <v>8</v>
       </c>
-      <c r="B22" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="10">
-        <v>120</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J22" s="14">
+      <c r="F22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="6">
+        <v>120</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J22" s="8">
         <v>1</v>
       </c>
       <c r="K22" s="1">
@@ -2054,10 +2443,10 @@
       <c r="L22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="9">
         <v>0.1016</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="9">
         <v>8.9099999999999999E-2</v>
       </c>
       <c r="O22" s="1">
@@ -2066,39 +2455,39 @@
       <c r="P22" s="1">
         <v>9.9580000000000002</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="12">
         <v>8</v>
       </c>
-      <c r="B23" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="10">
-        <v>120</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J23" s="14">
+      <c r="F23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="6">
+        <v>120</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J23" s="8">
         <v>1</v>
       </c>
       <c r="K23" s="1">
@@ -2107,10 +2496,10 @@
       <c r="L23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="9">
         <v>0.67190000000000005</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="9">
         <v>0.73219999999999996</v>
       </c>
       <c r="O23" s="1">
@@ -2119,39 +2508,39 @@
       <c r="P23" s="1">
         <v>0.95399999999999996</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="12">
         <v>8</v>
       </c>
-      <c r="B24" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="D24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="10">
-        <v>120</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J24" s="14">
+      <c r="F24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="6">
+        <v>120</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J24" s="8">
         <v>1</v>
       </c>
       <c r="K24" s="1">
@@ -2160,10 +2549,10 @@
       <c r="L24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="9">
         <v>0.63280000000000003</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O24" s="1">
@@ -2172,39 +2561,39 @@
       <c r="P24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="12">
         <v>8</v>
       </c>
-      <c r="B25" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="D25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="10">
-        <v>120</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J25" s="14">
+      <c r="F25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="6">
+        <v>120</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J25" s="8">
         <v>1</v>
       </c>
       <c r="K25" s="1">
@@ -2213,10 +2602,10 @@
       <c r="L25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="9">
         <v>0.875</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="9">
         <v>0.73340000000000005</v>
       </c>
       <c r="O25" s="1">
@@ -2225,39 +2614,39 @@
       <c r="P25" s="1">
         <v>0.7994</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="12">
         <v>8</v>
       </c>
-      <c r="B26" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="D26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="10">
-        <v>120</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J26" s="14">
+      <c r="F26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="6">
+        <v>120</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J26" s="8">
         <v>2</v>
       </c>
       <c r="K26" s="1">
@@ -2266,10 +2655,10 @@
       <c r="L26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="9">
         <v>0.8125</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="9">
         <v>0.75090000000000001</v>
       </c>
       <c r="O26" s="1">
@@ -2278,39 +2667,39 @@
       <c r="P26" s="1">
         <v>0.76100000000000001</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="12">
         <v>8</v>
       </c>
-      <c r="B27" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="D27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="10">
-        <v>120</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J27" s="14">
+      <c r="F27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="6">
+        <v>120</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J27" s="8">
         <v>2</v>
       </c>
       <c r="K27" s="1">
@@ -2319,10 +2708,10 @@
       <c r="L27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="9">
         <v>0.82030000000000003</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O27" s="1">
@@ -2331,39 +2720,39 @@
       <c r="P27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="12">
         <v>8</v>
       </c>
-      <c r="B28" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="D28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="10">
-        <v>120</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J28" s="14">
+      <c r="F28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="6">
+        <v>120</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J28" s="8">
         <v>2</v>
       </c>
       <c r="K28" s="1">
@@ -2372,10 +2761,10 @@
       <c r="L28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="9">
         <v>0.86719999999999997</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="9">
         <v>0.78949999999999998</v>
       </c>
       <c r="O28" s="1">
@@ -2384,39 +2773,39 @@
       <c r="P28" s="1">
         <v>0.64329999999999998</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="12">
         <v>8</v>
       </c>
-      <c r="B29" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="D29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="10">
-        <v>120</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J29" s="14">
+      <c r="F29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="6">
+        <v>120</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J29" s="8">
         <v>3</v>
       </c>
       <c r="K29" s="1">
@@ -2425,10 +2814,10 @@
       <c r="L29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="9">
         <v>0.82809999999999995</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="9">
         <v>0.79910000000000003</v>
       </c>
       <c r="O29" s="1">
@@ -2437,39 +2826,39 @@
       <c r="P29" s="1">
         <v>0.6109</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="12">
         <v>8</v>
       </c>
-      <c r="B30" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="D30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="10">
-        <v>120</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J30" s="14">
+      <c r="F30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="6">
+        <v>120</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J30" s="8">
         <v>3</v>
       </c>
       <c r="K30" s="1">
@@ -2478,10 +2867,10 @@
       <c r="L30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="9">
         <v>0.85940000000000005</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="9">
         <v>0.82310000000000005</v>
       </c>
       <c r="O30" s="1">
@@ -2490,39 +2879,39 @@
       <c r="P30" s="1">
         <v>0.51939999999999997</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="12">
         <v>8</v>
       </c>
-      <c r="B31" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="D31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="10">
-        <v>120</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J31" s="14">
+      <c r="F31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="6">
+        <v>120</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J31" s="8">
         <v>4</v>
       </c>
       <c r="K31" s="1">
@@ -2531,10 +2920,10 @@
       <c r="L31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="9">
         <v>0.82809999999999995</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O31" s="1">
@@ -2543,39 +2932,39 @@
       <c r="P31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="12">
         <v>8</v>
       </c>
-      <c r="B32" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="D32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="10">
-        <v>120</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J32" s="14">
+      <c r="F32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="6">
+        <v>120</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J32" s="8">
         <v>4</v>
       </c>
       <c r="K32" s="1">
@@ -2584,10 +2973,10 @@
       <c r="L32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="9">
         <v>0.8125</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="9">
         <v>0.82110000000000005</v>
       </c>
       <c r="O32" s="1">
@@ -2596,39 +2985,39 @@
       <c r="P32" s="1">
         <v>0.5151</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="12">
         <v>8</v>
       </c>
-      <c r="B33" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="D33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="10">
-        <v>120</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J33" s="14">
+      <c r="F33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="6">
+        <v>120</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J33" s="8">
         <v>4</v>
       </c>
       <c r="K33" s="1">
@@ -2637,10 +3026,10 @@
       <c r="L33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="9">
         <v>0.82809999999999995</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="9">
         <v>0.83350000000000002</v>
       </c>
       <c r="O33" s="1">
@@ -2649,39 +3038,39 @@
       <c r="P33" s="1">
         <v>0.499</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q33" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="12">
         <v>8</v>
       </c>
-      <c r="B34" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="D34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="10">
-        <v>120</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J34" s="14">
+      <c r="F34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="6">
+        <v>120</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J34" s="8">
         <v>4</v>
       </c>
       <c r="K34" s="1">
@@ -2690,10 +3079,10 @@
       <c r="L34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="9">
         <v>0.90629999999999999</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="9">
         <v>0.81310000000000004</v>
       </c>
       <c r="O34" s="1">
@@ -2702,42 +3091,42 @@
       <c r="P34" s="1">
         <v>0.56140000000000001</v>
       </c>
-      <c r="Q34" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="R34" s="6">
+      <c r="Q34" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="R34" s="10">
         <v>0.81930000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>9</v>
-      </c>
-      <c r="B35" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="A35" s="12">
+        <v>9</v>
+      </c>
+      <c r="B35" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="D35" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="10">
-        <v>120</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J35" s="14">
+      <c r="F35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="6">
+        <v>120</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J35" s="8">
         <v>1</v>
       </c>
       <c r="K35" s="1">
@@ -2746,10 +3135,10 @@
       <c r="L35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="9">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="9">
         <v>0.35210000000000002</v>
       </c>
       <c r="O35" s="1">
@@ -2758,39 +3147,39 @@
       <c r="P35" s="1">
         <v>5.6581000000000001</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>9</v>
-      </c>
-      <c r="B36" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="A36" s="12">
+        <v>9</v>
+      </c>
+      <c r="B36" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="D36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="10">
-        <v>120</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J36" s="14">
+      <c r="F36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="6">
+        <v>120</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J36" s="8">
         <v>1</v>
       </c>
       <c r="K36" s="1">
@@ -2799,10 +3188,10 @@
       <c r="L36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="9">
         <v>0.6875</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36" s="9">
         <v>0.62419999999999998</v>
       </c>
       <c r="O36" s="1">
@@ -2811,39 +3200,39 @@
       <c r="P36" s="1">
         <v>1.2879</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q36" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>9</v>
-      </c>
-      <c r="B37" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="A37" s="12">
+        <v>9</v>
+      </c>
+      <c r="B37" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="10" t="s">
+      <c r="D37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F37" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="10">
-        <v>120</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J37" s="14">
+      <c r="F37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="6">
+        <v>120</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J37" s="8">
         <v>1</v>
       </c>
       <c r="K37" s="1">
@@ -2852,10 +3241,10 @@
       <c r="L37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37" s="9">
         <v>0.70309999999999995</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="N37" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O37" s="1">
@@ -2864,39 +3253,39 @@
       <c r="P37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q37" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="B38" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C38" s="10" t="s">
+      <c r="A38" s="12">
+        <v>9</v>
+      </c>
+      <c r="B38" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="10" t="s">
+      <c r="D38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="10">
-        <v>120</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J38" s="14">
+      <c r="F38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="6">
+        <v>120</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J38" s="8">
         <v>1</v>
       </c>
       <c r="K38" s="1">
@@ -2905,10 +3294,10 @@
       <c r="L38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="9">
         <v>0.73440000000000005</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="9">
         <v>0.74239999999999995</v>
       </c>
       <c r="O38" s="1">
@@ -2917,39 +3306,39 @@
       <c r="P38" s="1">
         <v>0.75219999999999998</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>9</v>
-      </c>
-      <c r="B39" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C39" s="10" t="s">
+      <c r="A39" s="12">
+        <v>9</v>
+      </c>
+      <c r="B39" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="10" t="s">
+      <c r="D39" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="10">
-        <v>120</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J39" s="14">
+      <c r="F39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="6">
+        <v>120</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J39" s="8">
         <v>1</v>
       </c>
       <c r="K39" s="1">
@@ -2958,10 +3347,10 @@
       <c r="L39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="9">
         <v>0.78129999999999999</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N39" s="9">
         <v>0.79269999999999996</v>
       </c>
       <c r="O39" s="1">
@@ -2970,39 +3359,39 @@
       <c r="P39" s="1">
         <v>0.6341</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q39" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>9</v>
-      </c>
-      <c r="B40" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C40" s="10" t="s">
+      <c r="A40" s="12">
+        <v>9</v>
+      </c>
+      <c r="B40" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="10" t="s">
+      <c r="D40" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="10">
-        <v>120</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J40" s="14">
+      <c r="F40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="6">
+        <v>120</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J40" s="8">
         <v>1</v>
       </c>
       <c r="K40" s="1">
@@ -3011,10 +3400,10 @@
       <c r="L40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="9">
         <v>0.75780000000000003</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="N40" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O40" s="1">
@@ -3023,39 +3412,39 @@
       <c r="P40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>9</v>
-      </c>
-      <c r="B41" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C41" s="10" t="s">
+      <c r="A41" s="12">
+        <v>9</v>
+      </c>
+      <c r="B41" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="10" t="s">
+      <c r="D41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="10">
-        <v>120</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J41" s="14">
+      <c r="F41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="6">
+        <v>120</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J41" s="8">
         <v>1</v>
       </c>
       <c r="K41" s="1">
@@ -3064,10 +3453,10 @@
       <c r="L41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="9">
         <v>0.84379999999999999</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="9">
         <v>0.81479999999999997</v>
       </c>
       <c r="O41" s="1">
@@ -3076,39 +3465,39 @@
       <c r="P41" s="1">
         <v>0.55710000000000004</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>9</v>
-      </c>
-      <c r="B42" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="A42" s="12">
+        <v>9</v>
+      </c>
+      <c r="B42" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="10" t="s">
+      <c r="D42" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="10">
-        <v>120</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J42" s="14">
+      <c r="F42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="6">
+        <v>120</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J42" s="8">
         <v>1</v>
       </c>
       <c r="K42" s="1">
@@ -3117,10 +3506,10 @@
       <c r="L42" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="9">
         <v>0.83589999999999998</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="9">
         <v>0.82930000000000004</v>
       </c>
       <c r="O42" s="1">
@@ -3129,39 +3518,39 @@
       <c r="P42" s="1">
         <v>0.51619999999999999</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q42" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>9</v>
-      </c>
-      <c r="B43" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="A43" s="12">
+        <v>9</v>
+      </c>
+      <c r="B43" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="10" t="s">
+      <c r="D43" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="10">
-        <v>120</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J43" s="14">
+      <c r="F43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="6">
+        <v>120</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J43" s="8">
         <v>1</v>
       </c>
       <c r="K43" s="1">
@@ -3170,10 +3559,10 @@
       <c r="L43" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="9">
         <v>0.85160000000000002</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="9">
         <v>0.84289999999999998</v>
       </c>
       <c r="O43" s="1">
@@ -3182,39 +3571,39 @@
       <c r="P43" s="1">
         <v>0.46339999999999998</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="Q43" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>9</v>
-      </c>
-      <c r="B44" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C44" s="10" t="s">
+      <c r="A44" s="12">
+        <v>9</v>
+      </c>
+      <c r="B44" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="10" t="s">
+      <c r="D44" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="10">
-        <v>120</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J44" s="14">
+      <c r="F44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="6">
+        <v>120</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J44" s="8">
         <v>1</v>
       </c>
       <c r="K44" s="1">
@@ -3223,10 +3612,10 @@
       <c r="L44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="9">
         <v>0.85160000000000002</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="N44" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O44" s="1">
@@ -3235,39 +3624,39 @@
       <c r="P44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q44" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>9</v>
-      </c>
-      <c r="B45" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="A45" s="12">
+        <v>9</v>
+      </c>
+      <c r="B45" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="10" t="s">
+      <c r="D45" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F45" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="10">
-        <v>120</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I45" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J45" s="14">
+      <c r="F45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="6">
+        <v>120</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J45" s="8">
         <v>1</v>
       </c>
       <c r="K45" s="1">
@@ -3276,10 +3665,10 @@
       <c r="L45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="9">
         <v>0.85940000000000005</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="9">
         <v>0.83099999999999996</v>
       </c>
       <c r="O45" s="1">
@@ -3288,39 +3677,39 @@
       <c r="P45" s="1">
         <v>0.46910000000000002</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="Q45" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>9</v>
-      </c>
-      <c r="B46" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C46" s="10" t="s">
+      <c r="A46" s="12">
+        <v>9</v>
+      </c>
+      <c r="B46" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="10" t="s">
+      <c r="D46" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="10">
-        <v>120</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J46" s="14">
+      <c r="F46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="6">
+        <v>120</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J46" s="8">
         <v>1</v>
       </c>
       <c r="K46" s="1">
@@ -3329,10 +3718,10 @@
       <c r="L46" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="9">
         <v>0.875</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="9">
         <v>0.86209999999999998</v>
       </c>
       <c r="O46" s="1">
@@ -3341,39 +3730,39 @@
       <c r="P46" s="1">
         <v>0.39929999999999999</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q46" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>9</v>
-      </c>
-      <c r="B47" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C47" s="10" t="s">
+      <c r="A47" s="12">
+        <v>9</v>
+      </c>
+      <c r="B47" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="10" t="s">
+      <c r="D47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="10">
-        <v>120</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J47" s="14">
+      <c r="F47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="6">
+        <v>120</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J47" s="8">
         <v>1</v>
       </c>
       <c r="K47" s="1">
@@ -3382,10 +3771,10 @@
       <c r="L47" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="9">
         <v>0.875</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="N47" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O47" s="1">
@@ -3394,39 +3783,39 @@
       <c r="P47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q47" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>9</v>
-      </c>
-      <c r="B48" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C48" s="10" t="s">
+      <c r="A48" s="12">
+        <v>9</v>
+      </c>
+      <c r="B48" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" s="10" t="s">
+      <c r="D48" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="10">
-        <v>120</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J48" s="14">
+      <c r="F48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="6">
+        <v>120</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J48" s="8">
         <v>1</v>
       </c>
       <c r="K48" s="1">
@@ -3435,10 +3824,10 @@
       <c r="L48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="9">
         <v>0.90629999999999999</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="9">
         <v>0.87119999999999997</v>
       </c>
       <c r="O48" s="1">
@@ -3447,39 +3836,39 @@
       <c r="P48" s="1">
         <v>0.38540000000000002</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="Q48" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>9</v>
-      </c>
-      <c r="B49" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C49" s="10" t="s">
+      <c r="A49" s="12">
+        <v>9</v>
+      </c>
+      <c r="B49" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="10" t="s">
+      <c r="D49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="10">
-        <v>120</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J49" s="14">
+      <c r="F49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="6">
+        <v>120</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J49" s="8">
         <v>1</v>
       </c>
       <c r="K49" s="1">
@@ -3488,10 +3877,10 @@
       <c r="L49" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="9">
         <v>0.86719999999999997</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="9">
         <v>0.88190000000000002</v>
       </c>
       <c r="O49" s="1">
@@ -3500,39 +3889,39 @@
       <c r="P49" s="1">
         <v>0.3569</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="Q49" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>9</v>
-      </c>
-      <c r="B50" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C50" s="10" t="s">
+      <c r="A50" s="12">
+        <v>9</v>
+      </c>
+      <c r="B50" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="10" t="s">
+      <c r="D50" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F50" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="10">
-        <v>120</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J50" s="14">
+      <c r="F50" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="6">
+        <v>120</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J50" s="8">
         <v>2</v>
       </c>
       <c r="K50" s="1">
@@ -3541,10 +3930,10 @@
       <c r="L50" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="9">
         <v>0.86719999999999997</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N50" s="9">
         <v>0.88580000000000003</v>
       </c>
       <c r="O50" s="1">
@@ -3553,39 +3942,39 @@
       <c r="P50" s="1">
         <v>0.3417</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q50" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>9</v>
-      </c>
-      <c r="B51" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C51" s="10" t="s">
+      <c r="A51" s="12">
+        <v>9</v>
+      </c>
+      <c r="B51" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="10" t="s">
+      <c r="D51" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="10">
-        <v>120</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J51" s="14">
+      <c r="F51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="6">
+        <v>120</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J51" s="8">
         <v>2</v>
       </c>
       <c r="K51" s="1">
@@ -3594,10 +3983,10 @@
       <c r="L51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="9">
         <v>0.85160000000000002</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="N51" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O51" s="1">
@@ -3606,39 +3995,39 @@
       <c r="P51" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q51" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>9</v>
-      </c>
-      <c r="B52" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C52" s="10" t="s">
+      <c r="A52" s="12">
+        <v>9</v>
+      </c>
+      <c r="B52" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="10" t="s">
+      <c r="D52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F52" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="10">
-        <v>120</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J52" s="14">
+      <c r="F52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="6">
+        <v>120</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J52" s="8">
         <v>2</v>
       </c>
       <c r="K52" s="1">
@@ -3647,10 +4036,10 @@
       <c r="L52" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="9">
         <v>0.91410000000000002</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="9">
         <v>0.88170000000000004</v>
       </c>
       <c r="O52" s="1">
@@ -3659,39 +4048,39 @@
       <c r="P52" s="1">
         <v>0.34710000000000002</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="Q52" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>9</v>
-      </c>
-      <c r="B53" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C53" s="10" t="s">
+      <c r="A53" s="12">
+        <v>9</v>
+      </c>
+      <c r="B53" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="10" t="s">
+      <c r="D53" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="10">
-        <v>120</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J53" s="14">
+      <c r="F53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="6">
+        <v>120</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J53" s="8">
         <v>2</v>
       </c>
       <c r="K53" s="1">
@@ -3700,10 +4089,10 @@
       <c r="L53" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M53" s="9">
         <v>0.875</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N53" s="9">
         <v>0.89119999999999999</v>
       </c>
       <c r="O53" s="1">
@@ -3712,39 +4101,39 @@
       <c r="P53" s="1">
         <v>0.3362</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="Q53" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>9</v>
-      </c>
-      <c r="B54" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C54" s="10" t="s">
+      <c r="A54" s="12">
+        <v>9</v>
+      </c>
+      <c r="B54" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="10" t="s">
+      <c r="D54" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="10">
-        <v>120</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J54" s="14">
+      <c r="F54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="6">
+        <v>120</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J54" s="8">
         <v>2</v>
       </c>
       <c r="K54" s="1">
@@ -3753,10 +4142,10 @@
       <c r="L54" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="9">
         <v>0.89059999999999995</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="N54" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O54" s="1">
@@ -3765,39 +4154,39 @@
       <c r="P54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q54" s="1">
+      <c r="Q54" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>9</v>
-      </c>
-      <c r="B55" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C55" s="10" t="s">
+      <c r="A55" s="12">
+        <v>9</v>
+      </c>
+      <c r="B55" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="10" t="s">
+      <c r="D55" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="10">
-        <v>120</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J55" s="14">
+      <c r="F55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="6">
+        <v>120</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J55" s="8">
         <v>2</v>
       </c>
       <c r="K55" s="1">
@@ -3806,10 +4195,10 @@
       <c r="L55" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M55" s="3">
+      <c r="M55" s="9">
         <v>0.89839999999999998</v>
       </c>
-      <c r="N55" s="3">
+      <c r="N55" s="9">
         <v>0.88919999999999999</v>
       </c>
       <c r="O55" s="1">
@@ -3818,39 +4207,39 @@
       <c r="P55" s="1">
         <v>0.34260000000000002</v>
       </c>
-      <c r="Q55" s="1">
+      <c r="Q55" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>9</v>
-      </c>
-      <c r="B56" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C56" s="10" t="s">
+      <c r="A56" s="12">
+        <v>9</v>
+      </c>
+      <c r="B56" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="10" t="s">
+      <c r="D56" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="10">
-        <v>120</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I56" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J56" s="14">
+      <c r="F56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="6">
+        <v>120</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J56" s="8">
         <v>2</v>
       </c>
       <c r="K56" s="1">
@@ -3859,10 +4248,10 @@
       <c r="L56" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M56" s="3">
+      <c r="M56" s="9">
         <v>0.9375</v>
       </c>
-      <c r="N56" s="3">
+      <c r="N56" s="9">
         <v>0.89049999999999996</v>
       </c>
       <c r="O56" s="1">
@@ -3871,39 +4260,39 @@
       <c r="P56" s="1">
         <v>0.32429999999999998</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="Q56" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>9</v>
-      </c>
-      <c r="B57" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C57" s="10" t="s">
+      <c r="A57" s="12">
+        <v>9</v>
+      </c>
+      <c r="B57" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="10" t="s">
+      <c r="D57" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="10">
-        <v>120</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I57" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J57" s="14">
+      <c r="F57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="6">
+        <v>120</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J57" s="8">
         <v>2</v>
       </c>
       <c r="K57" s="1">
@@ -3912,10 +4301,10 @@
       <c r="L57" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="9">
         <v>0.84379999999999999</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="9">
         <v>0.89839999999999998</v>
       </c>
       <c r="O57" s="1">
@@ -3924,39 +4313,39 @@
       <c r="P57" s="1">
         <v>0.33360000000000001</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="Q57" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>9</v>
-      </c>
-      <c r="B58" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C58" s="10" t="s">
+      <c r="A58" s="12">
+        <v>9</v>
+      </c>
+      <c r="B58" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="10" t="s">
+      <c r="D58" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F58" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="10">
-        <v>120</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I58" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J58" s="14">
+      <c r="F58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="6">
+        <v>120</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J58" s="8">
         <v>2</v>
       </c>
       <c r="K58" s="1">
@@ -3965,10 +4354,10 @@
       <c r="L58" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="9">
         <v>0.90629999999999999</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="N58" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O58" s="1">
@@ -3977,39 +4366,39 @@
       <c r="P58" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q58" s="1">
+      <c r="Q58" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>9</v>
-      </c>
-      <c r="B59" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C59" s="10" t="s">
+      <c r="A59" s="12">
+        <v>9</v>
+      </c>
+      <c r="B59" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" s="10" t="s">
+      <c r="D59" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="10">
-        <v>120</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I59" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J59" s="14">
+      <c r="F59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="6">
+        <v>120</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J59" s="8">
         <v>2</v>
       </c>
       <c r="K59" s="1">
@@ -4018,10 +4407,10 @@
       <c r="L59" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="9">
         <v>0.875</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="9">
         <v>0.88939999999999997</v>
       </c>
       <c r="O59" s="1">
@@ -4030,39 +4419,39 @@
       <c r="P59" s="1">
         <v>0.31780000000000003</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="Q59" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>9</v>
-      </c>
-      <c r="B60" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C60" s="10" t="s">
+      <c r="A60" s="12">
+        <v>9</v>
+      </c>
+      <c r="B60" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E60" s="10" t="s">
+      <c r="D60" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="10">
-        <v>120</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I60" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J60" s="14">
+      <c r="F60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="6">
+        <v>120</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J60" s="8">
         <v>2</v>
       </c>
       <c r="K60" s="1">
@@ -4071,10 +4460,10 @@
       <c r="L60" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="9">
         <v>0.92969999999999997</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="9">
         <v>0.89880000000000004</v>
       </c>
       <c r="O60" s="1">
@@ -4083,39 +4472,39 @@
       <c r="P60" s="1">
         <v>0.30590000000000001</v>
       </c>
-      <c r="Q60" s="1">
+      <c r="Q60" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>9</v>
-      </c>
-      <c r="B61" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C61" s="10" t="s">
+      <c r="A61" s="12">
+        <v>9</v>
+      </c>
+      <c r="B61" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="10" t="s">
+      <c r="D61" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F61" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" s="10">
-        <v>120</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J61" s="14">
+      <c r="F61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="6">
+        <v>120</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J61" s="8">
         <v>2</v>
       </c>
       <c r="K61" s="1">
@@ -4124,10 +4513,10 @@
       <c r="L61" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M61" s="3">
+      <c r="M61" s="9">
         <v>0.88280000000000003</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="N61" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O61" s="1">
@@ -4136,39 +4525,39 @@
       <c r="P61" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q61" s="1">
+      <c r="Q61" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>9</v>
-      </c>
-      <c r="B62" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C62" s="10" t="s">
+      <c r="A62" s="12">
+        <v>9</v>
+      </c>
+      <c r="B62" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E62" s="10" t="s">
+      <c r="D62" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F62" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" s="10">
-        <v>120</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I62" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J62" s="14">
+      <c r="F62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="6">
+        <v>120</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J62" s="8">
         <v>2</v>
       </c>
       <c r="K62" s="1">
@@ -4177,10 +4566,10 @@
       <c r="L62" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="9">
         <v>0.89059999999999995</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="9">
         <v>0.90759999999999996</v>
       </c>
       <c r="O62" s="1">
@@ -4189,39 +4578,39 @@
       <c r="P62" s="1">
         <v>0.28360000000000002</v>
       </c>
-      <c r="Q62" s="1">
+      <c r="Q62" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>9</v>
-      </c>
-      <c r="B63" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C63" s="10" t="s">
+      <c r="A63" s="12">
+        <v>9</v>
+      </c>
+      <c r="B63" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D63" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E63" s="10" t="s">
+      <c r="D63" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" s="10">
-        <v>120</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I63" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J63" s="14">
+      <c r="F63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="6">
+        <v>120</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J63" s="8">
         <v>2</v>
       </c>
       <c r="K63" s="1">
@@ -4230,10 +4619,10 @@
       <c r="L63" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M63" s="3">
+      <c r="M63" s="9">
         <v>0.9375</v>
       </c>
-      <c r="N63" s="3">
+      <c r="N63" s="9">
         <v>0.90229999999999999</v>
       </c>
       <c r="O63" s="1">
@@ -4242,39 +4631,39 @@
       <c r="P63" s="1">
         <v>0.30080000000000001</v>
       </c>
-      <c r="Q63" s="1">
+      <c r="Q63" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>9</v>
-      </c>
-      <c r="B64" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C64" s="10" t="s">
+      <c r="A64" s="12">
+        <v>9</v>
+      </c>
+      <c r="B64" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E64" s="10" t="s">
+      <c r="D64" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F64" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" s="10">
-        <v>120</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I64" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J64" s="14">
+      <c r="F64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="6">
+        <v>120</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J64" s="8">
         <v>2</v>
       </c>
       <c r="K64" s="1">
@@ -4283,10 +4672,10 @@
       <c r="L64" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M64" s="3">
+      <c r="M64" s="9">
         <v>0.88280000000000003</v>
       </c>
-      <c r="N64" s="3">
+      <c r="N64" s="9">
         <v>0.89610000000000001</v>
       </c>
       <c r="O64" s="1">
@@ -4295,39 +4684,39 @@
       <c r="P64" s="1">
         <v>0.2969</v>
       </c>
-      <c r="Q64" s="1">
+      <c r="Q64" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>9</v>
-      </c>
-      <c r="B65" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C65" s="10" t="s">
+      <c r="A65" s="12">
+        <v>9</v>
+      </c>
+      <c r="B65" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E65" s="10" t="s">
+      <c r="D65" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" s="10">
-        <v>120</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I65" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J65" s="14">
+      <c r="F65" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="6">
+        <v>120</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J65" s="8">
         <v>3</v>
       </c>
       <c r="K65" s="1">
@@ -4336,10 +4725,10 @@
       <c r="L65" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M65" s="3">
+      <c r="M65" s="9">
         <v>0.88280000000000003</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="N65" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O65" s="1">
@@ -4348,39 +4737,39 @@
       <c r="P65" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q65" s="1">
+      <c r="Q65" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>9</v>
-      </c>
-      <c r="B66" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C66" s="10" t="s">
+      <c r="A66" s="12">
+        <v>9</v>
+      </c>
+      <c r="B66" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D66" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66" s="10" t="s">
+      <c r="D66" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F66" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="10">
-        <v>120</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I66" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J66" s="14">
+      <c r="F66" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="6">
+        <v>120</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J66" s="8">
         <v>3</v>
       </c>
       <c r="K66" s="1">
@@ -4389,10 +4778,10 @@
       <c r="L66" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="9">
         <v>0.95309999999999995</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="9">
         <v>0.90959999999999996</v>
       </c>
       <c r="O66" s="1">
@@ -4401,39 +4790,39 @@
       <c r="P66" s="1">
         <v>0.27729999999999999</v>
       </c>
-      <c r="Q66" s="1">
+      <c r="Q66" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>9</v>
-      </c>
-      <c r="B67" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C67" s="10" t="s">
+      <c r="A67" s="12">
+        <v>9</v>
+      </c>
+      <c r="B67" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E67" s="10" t="s">
+      <c r="D67" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F67" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" s="10">
-        <v>120</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J67" s="14">
+      <c r="F67" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="6">
+        <v>120</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J67" s="8">
         <v>3</v>
       </c>
       <c r="K67" s="1">
@@ -4442,10 +4831,10 @@
       <c r="L67" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M67" s="3">
+      <c r="M67" s="9">
         <v>0.89839999999999998</v>
       </c>
-      <c r="N67" s="3">
+      <c r="N67" s="9">
         <v>0.89570000000000005</v>
       </c>
       <c r="O67" s="1">
@@ -4454,39 +4843,39 @@
       <c r="P67" s="1">
         <v>0.2949</v>
       </c>
-      <c r="Q67" s="1">
+      <c r="Q67" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>9</v>
-      </c>
-      <c r="B68" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C68" s="10" t="s">
+      <c r="A68" s="12">
+        <v>9</v>
+      </c>
+      <c r="B68" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D68" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E68" s="10" t="s">
+      <c r="D68" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F68" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="10">
-        <v>120</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I68" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J68" s="14">
+      <c r="F68" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" s="6">
+        <v>120</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J68" s="8">
         <v>3</v>
       </c>
       <c r="K68" s="1">
@@ -4495,10 +4884,10 @@
       <c r="L68" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M68" s="3">
+      <c r="M68" s="9">
         <v>0.88280000000000003</v>
       </c>
-      <c r="N68" s="1" t="s">
+      <c r="N68" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O68" s="1">
@@ -4507,39 +4896,39 @@
       <c r="P68" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q68" s="1">
+      <c r="Q68" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>9</v>
-      </c>
-      <c r="B69" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C69" s="10" t="s">
+      <c r="A69" s="12">
+        <v>9</v>
+      </c>
+      <c r="B69" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E69" s="10" t="s">
+      <c r="D69" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F69" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" s="10">
-        <v>120</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I69" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J69" s="14">
+      <c r="F69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" s="6">
+        <v>120</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J69" s="8">
         <v>3</v>
       </c>
       <c r="K69" s="1">
@@ -4548,10 +4937,10 @@
       <c r="L69" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M69" s="3">
+      <c r="M69" s="9">
         <v>0.91410000000000002</v>
       </c>
-      <c r="N69" s="3">
+      <c r="N69" s="9">
         <v>0.90839999999999999</v>
       </c>
       <c r="O69" s="1">
@@ -4560,39 +4949,39 @@
       <c r="P69" s="1">
         <v>0.27479999999999999</v>
       </c>
-      <c r="Q69" s="1">
+      <c r="Q69" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>9</v>
-      </c>
-      <c r="B70" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C70" s="10" t="s">
+      <c r="A70" s="12">
+        <v>9</v>
+      </c>
+      <c r="B70" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D70" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E70" s="10" t="s">
+      <c r="D70" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F70" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" s="10">
-        <v>120</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I70" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J70" s="14">
+      <c r="F70" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" s="6">
+        <v>120</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J70" s="8">
         <v>3</v>
       </c>
       <c r="K70" s="1">
@@ -4601,10 +4990,10 @@
       <c r="L70" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M70" s="3">
+      <c r="M70" s="9">
         <v>0.90629999999999999</v>
       </c>
-      <c r="N70" s="3">
+      <c r="N70" s="9">
         <v>0.90969999999999995</v>
       </c>
       <c r="O70" s="1">
@@ -4613,39 +5002,39 @@
       <c r="P70" s="1">
         <v>0.27410000000000001</v>
       </c>
-      <c r="Q70" s="1">
+      <c r="Q70" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>9</v>
-      </c>
-      <c r="B71" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C71" s="10" t="s">
+      <c r="A71" s="12">
+        <v>9</v>
+      </c>
+      <c r="B71" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D71" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E71" s="10" t="s">
+      <c r="D71" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F71" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" s="10">
-        <v>120</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I71" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J71" s="14">
+      <c r="F71" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="6">
+        <v>120</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J71" s="8">
         <v>3</v>
       </c>
       <c r="K71" s="1">
@@ -4654,10 +5043,10 @@
       <c r="L71" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M71" s="3">
+      <c r="M71" s="9">
         <v>0.91410000000000002</v>
       </c>
-      <c r="N71" s="3">
+      <c r="N71" s="9">
         <v>0.9133</v>
       </c>
       <c r="O71" s="1">
@@ -4666,39 +5055,39 @@
       <c r="P71" s="1">
         <v>0.26029999999999998</v>
       </c>
-      <c r="Q71" s="1">
+      <c r="Q71" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>9</v>
-      </c>
-      <c r="B72" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C72" s="10" t="s">
+      <c r="A72" s="12">
+        <v>9</v>
+      </c>
+      <c r="B72" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D72" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E72" s="10" t="s">
+      <c r="D72" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F72" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" s="10">
-        <v>120</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I72" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J72" s="14">
+      <c r="F72" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="6">
+        <v>120</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J72" s="8">
         <v>3</v>
       </c>
       <c r="K72" s="1">
@@ -4707,10 +5096,10 @@
       <c r="L72" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="9">
         <v>0.91410000000000002</v>
       </c>
-      <c r="N72" s="1" t="s">
+      <c r="N72" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O72" s="1">
@@ -4719,39 +5108,39 @@
       <c r="P72" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q72" s="1">
+      <c r="Q72" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>9</v>
-      </c>
-      <c r="B73" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C73" s="10" t="s">
+      <c r="A73" s="12">
+        <v>9</v>
+      </c>
+      <c r="B73" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E73" s="10" t="s">
+      <c r="D73" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F73" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" s="10">
-        <v>120</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I73" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J73" s="14">
+      <c r="F73" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="6">
+        <v>120</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J73" s="8">
         <v>3</v>
       </c>
       <c r="K73" s="1">
@@ -4760,10 +5149,10 @@
       <c r="L73" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M73" s="3">
+      <c r="M73" s="9">
         <v>0.91410000000000002</v>
       </c>
-      <c r="N73" s="3">
+      <c r="N73" s="9">
         <v>0.90659999999999996</v>
       </c>
       <c r="O73" s="1">
@@ -4772,39 +5161,39 @@
       <c r="P73" s="1">
         <v>0.28050000000000003</v>
       </c>
-      <c r="Q73" s="1">
+      <c r="Q73" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>9</v>
-      </c>
-      <c r="B74" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C74" s="10" t="s">
+      <c r="A74" s="12">
+        <v>9</v>
+      </c>
+      <c r="B74" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D74" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E74" s="10" t="s">
+      <c r="D74" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F74" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" s="10">
-        <v>120</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I74" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J74" s="14">
+      <c r="F74" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="6">
+        <v>120</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J74" s="8">
         <v>3</v>
       </c>
       <c r="K74" s="1">
@@ -4813,10 +5202,10 @@
       <c r="L74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M74" s="3">
+      <c r="M74" s="9">
         <v>0.90629999999999999</v>
       </c>
-      <c r="N74" s="3">
+      <c r="N74" s="9">
         <v>0.90810000000000002</v>
       </c>
       <c r="O74" s="1">
@@ -4825,39 +5214,39 @@
       <c r="P74" s="1">
         <v>0.27189999999999998</v>
       </c>
-      <c r="Q74" s="1">
+      <c r="Q74" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>9</v>
-      </c>
-      <c r="B75" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C75" s="10" t="s">
+      <c r="A75" s="12">
+        <v>9</v>
+      </c>
+      <c r="B75" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D75" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E75" s="10" t="s">
+      <c r="D75" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" s="10">
-        <v>120</v>
-      </c>
-      <c r="H75" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I75" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J75" s="14">
+      <c r="F75" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="6">
+        <v>120</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J75" s="8">
         <v>3</v>
       </c>
       <c r="K75" s="1">
@@ -4866,10 +5255,10 @@
       <c r="L75" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M75" s="3">
+      <c r="M75" s="9">
         <v>0.91410000000000002</v>
       </c>
-      <c r="N75" s="1" t="s">
+      <c r="N75" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O75" s="1">
@@ -4878,39 +5267,39 @@
       <c r="P75" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="Q75" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>9</v>
-      </c>
-      <c r="B76" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C76" s="10" t="s">
+      <c r="A76" s="12">
+        <v>9</v>
+      </c>
+      <c r="B76" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D76" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E76" s="10" t="s">
+      <c r="D76" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F76" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="10">
-        <v>120</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I76" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J76" s="14">
+      <c r="F76" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" s="6">
+        <v>120</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J76" s="8">
         <v>3</v>
       </c>
       <c r="K76" s="1">
@@ -4919,10 +5308,10 @@
       <c r="L76" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="9">
         <v>0.90629999999999999</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="9">
         <v>0.91590000000000005</v>
       </c>
       <c r="O76" s="1">
@@ -4931,39 +5320,39 @@
       <c r="P76" s="1">
         <v>0.26390000000000002</v>
       </c>
-      <c r="Q76" s="1">
+      <c r="Q76" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>9</v>
-      </c>
-      <c r="B77" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C77" s="10" t="s">
+      <c r="A77" s="12">
+        <v>9</v>
+      </c>
+      <c r="B77" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D77" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E77" s="10" t="s">
+      <c r="D77" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F77" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" s="10">
-        <v>120</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I77" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J77" s="14">
+      <c r="F77" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="6">
+        <v>120</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J77" s="8">
         <v>3</v>
       </c>
       <c r="K77" s="1">
@@ -4972,10 +5361,10 @@
       <c r="L77" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M77" s="3">
+      <c r="M77" s="9">
         <v>0.90629999999999999</v>
       </c>
-      <c r="N77" s="3">
+      <c r="N77" s="9">
         <v>0.91779999999999995</v>
       </c>
       <c r="O77" s="1">
@@ -4984,39 +5373,39 @@
       <c r="P77" s="1">
         <v>0.25829999999999997</v>
       </c>
-      <c r="Q77" s="1">
+      <c r="Q77" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>9</v>
-      </c>
-      <c r="B78" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C78" s="10" t="s">
+      <c r="A78" s="12">
+        <v>9</v>
+      </c>
+      <c r="B78" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D78" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E78" s="10" t="s">
+      <c r="D78" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F78" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" s="10">
-        <v>120</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I78" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J78" s="14">
+      <c r="F78" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="6">
+        <v>120</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J78" s="8">
         <v>3</v>
       </c>
       <c r="K78" s="1">
@@ -5025,10 +5414,10 @@
       <c r="L78" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M78" s="3">
+      <c r="M78" s="9">
         <v>0.86719999999999997</v>
       </c>
-      <c r="N78" s="3">
+      <c r="N78" s="9">
         <v>0.91569999999999996</v>
       </c>
       <c r="O78" s="1">
@@ -5037,39 +5426,39 @@
       <c r="P78" s="1">
         <v>0.25409999999999999</v>
       </c>
-      <c r="Q78" s="1">
+      <c r="Q78" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>9</v>
-      </c>
-      <c r="B79" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C79" s="10" t="s">
+      <c r="A79" s="12">
+        <v>9</v>
+      </c>
+      <c r="B79" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D79" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E79" s="10" t="s">
+      <c r="D79" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F79" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" s="10">
-        <v>120</v>
-      </c>
-      <c r="H79" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I79" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J79" s="14">
+      <c r="F79" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="6">
+        <v>120</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J79" s="8">
         <v>4</v>
       </c>
       <c r="K79" s="1">
@@ -5078,10 +5467,10 @@
       <c r="L79" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M79" s="3">
+      <c r="M79" s="9">
         <v>0.92190000000000005</v>
       </c>
-      <c r="N79" s="1" t="s">
+      <c r="N79" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O79" s="1">
@@ -5090,39 +5479,39 @@
       <c r="P79" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q79" s="1">
+      <c r="Q79" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>9</v>
-      </c>
-      <c r="B80" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C80" s="10" t="s">
+      <c r="A80" s="12">
+        <v>9</v>
+      </c>
+      <c r="B80" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E80" s="10" t="s">
+      <c r="D80" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F80" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" s="10">
-        <v>120</v>
-      </c>
-      <c r="H80" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I80" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J80" s="14">
+      <c r="F80" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="6">
+        <v>120</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J80" s="8">
         <v>4</v>
       </c>
       <c r="K80" s="1">
@@ -5131,10 +5520,10 @@
       <c r="L80" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M80" s="3">
+      <c r="M80" s="9">
         <v>0.96089999999999998</v>
       </c>
-      <c r="N80" s="3">
+      <c r="N80" s="9">
         <v>0.91659999999999997</v>
       </c>
       <c r="O80" s="1">
@@ -5143,39 +5532,39 @@
       <c r="P80" s="1">
         <v>0.25629999999999997</v>
       </c>
-      <c r="Q80" s="1">
+      <c r="Q80" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>9</v>
-      </c>
-      <c r="B81" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C81" s="10" t="s">
+      <c r="A81" s="12">
+        <v>9</v>
+      </c>
+      <c r="B81" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D81" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E81" s="10" t="s">
+      <c r="D81" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" s="10">
-        <v>120</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I81" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J81" s="14">
+      <c r="F81" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" s="6">
+        <v>120</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J81" s="8">
         <v>4</v>
       </c>
       <c r="K81" s="1">
@@ -5184,10 +5573,10 @@
       <c r="L81" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="9">
         <v>0.88280000000000003</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="9">
         <v>0.91569999999999996</v>
       </c>
       <c r="O81" s="1">
@@ -5196,39 +5585,39 @@
       <c r="P81" s="1">
         <v>0.2525</v>
       </c>
-      <c r="Q81" s="1">
+      <c r="Q81" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>9</v>
-      </c>
-      <c r="B82" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C82" s="10" t="s">
+      <c r="A82" s="12">
+        <v>9</v>
+      </c>
+      <c r="B82" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D82" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E82" s="10" t="s">
+      <c r="D82" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F82" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" s="10">
-        <v>120</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I82" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J82" s="14">
+      <c r="F82" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="6">
+        <v>120</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J82" s="8">
         <v>4</v>
       </c>
       <c r="K82" s="1">
@@ -5237,10 +5626,10 @@
       <c r="L82" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="M82" s="3">
+      <c r="M82" s="9">
         <v>0.85940000000000005</v>
       </c>
-      <c r="N82" s="1" t="s">
+      <c r="N82" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O82" s="1">
@@ -5249,39 +5638,39 @@
       <c r="P82" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q82" s="1">
+      <c r="Q82" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>9</v>
-      </c>
-      <c r="B83" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C83" s="10" t="s">
+      <c r="A83" s="12">
+        <v>9</v>
+      </c>
+      <c r="B83" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E83" s="10" t="s">
+      <c r="D83" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="10">
-        <v>120</v>
-      </c>
-      <c r="H83" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I83" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J83" s="14">
+      <c r="F83" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="6">
+        <v>120</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J83" s="8">
         <v>4</v>
       </c>
       <c r="K83" s="1">
@@ -5290,10 +5679,10 @@
       <c r="L83" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="9">
         <v>0.91410000000000002</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="9">
         <v>0.90449999999999997</v>
       </c>
       <c r="O83" s="1">
@@ -5302,39 +5691,39 @@
       <c r="P83" s="1">
         <v>0.2717</v>
       </c>
-      <c r="Q83" s="1">
+      <c r="Q83" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>9</v>
-      </c>
-      <c r="B84" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C84" s="10" t="s">
+      <c r="A84" s="12">
+        <v>9</v>
+      </c>
+      <c r="B84" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D84" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E84" s="10" t="s">
+      <c r="D84" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F84" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" s="10">
-        <v>120</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I84" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J84" s="14">
+      <c r="F84" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="6">
+        <v>120</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J84" s="8">
         <v>4</v>
       </c>
       <c r="K84" s="1">
@@ -5343,10 +5732,10 @@
       <c r="L84" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M84" s="3">
+      <c r="M84" s="9">
         <v>0.92190000000000005</v>
       </c>
-      <c r="N84" s="3">
+      <c r="N84" s="9">
         <v>0.91569999999999996</v>
       </c>
       <c r="O84" s="1">
@@ -5355,39 +5744,39 @@
       <c r="P84" s="1">
         <v>0.25409999999999999</v>
       </c>
-      <c r="Q84" s="1">
+      <c r="Q84" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>9</v>
-      </c>
-      <c r="B85" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C85" s="10" t="s">
+      <c r="A85" s="12">
+        <v>9</v>
+      </c>
+      <c r="B85" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D85" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E85" s="10" t="s">
+      <c r="D85" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F85" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" s="10">
-        <v>120</v>
-      </c>
-      <c r="H85" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I85" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J85" s="14">
+      <c r="F85" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" s="6">
+        <v>120</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J85" s="8">
         <v>4</v>
       </c>
       <c r="K85" s="1">
@@ -5396,10 +5785,10 @@
       <c r="L85" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M85" s="3">
+      <c r="M85" s="9">
         <v>0.89059999999999995</v>
       </c>
-      <c r="N85" s="3">
+      <c r="N85" s="9">
         <v>0.91639999999999999</v>
       </c>
       <c r="O85" s="1">
@@ -5408,39 +5797,39 @@
       <c r="P85" s="1">
         <v>0.25669999999999998</v>
       </c>
-      <c r="Q85" s="1">
+      <c r="Q85" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>9</v>
-      </c>
-      <c r="B86" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C86" s="10" t="s">
+      <c r="A86" s="12">
+        <v>9</v>
+      </c>
+      <c r="B86" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D86" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E86" s="10" t="s">
+      <c r="D86" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F86" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" s="10">
-        <v>120</v>
-      </c>
-      <c r="H86" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I86" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J86" s="14">
+      <c r="F86" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" s="6">
+        <v>120</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J86" s="8">
         <v>4</v>
       </c>
       <c r="K86" s="1">
@@ -5449,10 +5838,10 @@
       <c r="L86" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M86" s="3">
+      <c r="M86" s="9">
         <v>0.88280000000000003</v>
       </c>
-      <c r="N86" s="1" t="s">
+      <c r="N86" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O86" s="1">
@@ -5461,39 +5850,39 @@
       <c r="P86" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q86" s="1">
+      <c r="Q86" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>9</v>
-      </c>
-      <c r="B87" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C87" s="10" t="s">
+      <c r="A87" s="12">
+        <v>9</v>
+      </c>
+      <c r="B87" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D87" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E87" s="10" t="s">
+      <c r="D87" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F87" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" s="10">
-        <v>120</v>
-      </c>
-      <c r="H87" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I87" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J87" s="14">
+      <c r="F87" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="6">
+        <v>120</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J87" s="8">
         <v>4</v>
       </c>
       <c r="K87" s="1">
@@ -5502,10 +5891,10 @@
       <c r="L87" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M87" s="3">
+      <c r="M87" s="9">
         <v>0.875</v>
       </c>
-      <c r="N87" s="3">
+      <c r="N87" s="9">
         <v>0.9163</v>
       </c>
       <c r="O87" s="1">
@@ -5514,39 +5903,39 @@
       <c r="P87" s="1">
         <v>0.25679999999999997</v>
       </c>
-      <c r="Q87" s="1">
+      <c r="Q87" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>9</v>
-      </c>
-      <c r="B88" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C88" s="10" t="s">
+      <c r="A88" s="12">
+        <v>9</v>
+      </c>
+      <c r="B88" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D88" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E88" s="10" t="s">
+      <c r="D88" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F88" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" s="10">
-        <v>120</v>
-      </c>
-      <c r="H88" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I88" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J88" s="14">
+      <c r="F88" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="6">
+        <v>120</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J88" s="8">
         <v>4</v>
       </c>
       <c r="K88" s="1">
@@ -5555,10 +5944,10 @@
       <c r="L88" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M88" s="3">
+      <c r="M88" s="9">
         <v>0.92969999999999997</v>
       </c>
-      <c r="N88" s="3">
+      <c r="N88" s="9">
         <v>0.91569999999999996</v>
       </c>
       <c r="O88" s="1">
@@ -5567,39 +5956,39 @@
       <c r="P88" s="1">
         <v>0.2485</v>
       </c>
-      <c r="Q88" s="1">
+      <c r="Q88" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>9</v>
-      </c>
-      <c r="B89" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C89" s="10" t="s">
+      <c r="A89" s="12">
+        <v>9</v>
+      </c>
+      <c r="B89" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D89" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E89" s="10" t="s">
+      <c r="D89" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F89" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="10">
-        <v>120</v>
-      </c>
-      <c r="H89" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I89" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J89" s="14">
+      <c r="F89" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="6">
+        <v>120</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J89" s="8">
         <v>4</v>
       </c>
       <c r="K89" s="1">
@@ -5608,10 +5997,10 @@
       <c r="L89" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="9">
         <v>0.89839999999999998</v>
       </c>
-      <c r="N89" s="1" t="s">
+      <c r="N89" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O89" s="1">
@@ -5620,39 +6009,39 @@
       <c r="P89" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q89" s="1">
+      <c r="Q89" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>9</v>
-      </c>
-      <c r="B90" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C90" s="10" t="s">
+      <c r="A90" s="12">
+        <v>9</v>
+      </c>
+      <c r="B90" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D90" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E90" s="10" t="s">
+      <c r="D90" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F90" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" s="10">
-        <v>120</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I90" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J90" s="14">
+      <c r="F90" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="6">
+        <v>120</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J90" s="8">
         <v>4</v>
       </c>
       <c r="K90" s="1">
@@ -5661,10 +6050,10 @@
       <c r="L90" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M90" s="3">
+      <c r="M90" s="9">
         <v>0.89839999999999998</v>
       </c>
-      <c r="N90" s="3">
+      <c r="N90" s="9">
         <v>0.91859999999999997</v>
       </c>
       <c r="O90" s="1">
@@ -5673,39 +6062,39 @@
       <c r="P90" s="1">
         <v>0.24510000000000001</v>
       </c>
-      <c r="Q90" s="1">
+      <c r="Q90" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>9</v>
-      </c>
-      <c r="B91" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C91" s="10" t="s">
+      <c r="A91" s="12">
+        <v>9</v>
+      </c>
+      <c r="B91" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D91" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E91" s="10" t="s">
+      <c r="D91" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F91" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="10">
-        <v>120</v>
-      </c>
-      <c r="H91" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I91" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J91" s="14">
+      <c r="F91" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="6">
+        <v>120</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J91" s="8">
         <v>4</v>
       </c>
       <c r="K91" s="1">
@@ -5714,10 +6103,10 @@
       <c r="L91" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="9">
         <v>0.96089999999999998</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="9">
         <v>0.92459999999999998</v>
       </c>
       <c r="O91" s="1">
@@ -5726,39 +6115,39 @@
       <c r="P91" s="1">
         <v>0.23330000000000001</v>
       </c>
-      <c r="Q91" s="1">
+      <c r="Q91" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>9</v>
-      </c>
-      <c r="B92" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C92" s="10" t="s">
+      <c r="A92" s="12">
+        <v>9</v>
+      </c>
+      <c r="B92" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D92" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E92" s="10" t="s">
+      <c r="D92" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F92" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" s="10">
-        <v>120</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I92" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J92" s="14">
+      <c r="F92" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="6">
+        <v>120</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J92" s="8">
         <v>4</v>
       </c>
       <c r="K92" s="1">
@@ -5767,10 +6156,10 @@
       <c r="L92" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M92" s="3">
+      <c r="M92" s="9">
         <v>0.91410000000000002</v>
       </c>
-      <c r="N92" s="3">
+      <c r="N92" s="9">
         <v>0.91649999999999998</v>
       </c>
       <c r="O92" s="1">
@@ -5779,39 +6168,39 @@
       <c r="P92" s="1">
         <v>0.25459999999999999</v>
       </c>
-      <c r="Q92" s="1">
+      <c r="Q92" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>9</v>
-      </c>
-      <c r="B93" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C93" s="10" t="s">
+      <c r="A93" s="12">
+        <v>9</v>
+      </c>
+      <c r="B93" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D93" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E93" s="10" t="s">
+      <c r="D93" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F93" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" s="10">
-        <v>120</v>
-      </c>
-      <c r="H93" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I93" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J93" s="14">
+      <c r="F93" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="6">
+        <v>120</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J93" s="8">
         <v>4</v>
       </c>
       <c r="K93" s="1">
@@ -5820,10 +6209,10 @@
       <c r="L93" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M93" s="3">
+      <c r="M93" s="9">
         <v>0.92190000000000005</v>
       </c>
-      <c r="N93" s="1" t="s">
+      <c r="N93" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O93" s="1">
@@ -5832,39 +6221,39 @@
       <c r="P93" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q93" s="1">
+      <c r="Q93" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>9</v>
-      </c>
-      <c r="B94" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C94" s="10" t="s">
+      <c r="A94" s="12">
+        <v>9</v>
+      </c>
+      <c r="B94" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D94" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E94" s="10" t="s">
+      <c r="D94" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F94" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="10">
-        <v>120</v>
-      </c>
-      <c r="H94" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I94" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J94" s="14">
+      <c r="F94" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="6">
+        <v>120</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J94" s="8">
         <v>4</v>
       </c>
       <c r="K94" s="1">
@@ -5873,10 +6262,10 @@
       <c r="L94" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="9">
         <v>0.9375</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="9">
         <v>0.91800000000000004</v>
       </c>
       <c r="O94" s="1">
@@ -5885,39 +6274,39 @@
       <c r="P94" s="1">
         <v>0.24990000000000001</v>
       </c>
-      <c r="Q94" s="1">
+      <c r="Q94" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>9</v>
-      </c>
-      <c r="B95" s="12">
-        <v>43579</v>
-      </c>
-      <c r="C95" s="10" t="s">
+      <c r="A95" s="12">
+        <v>9</v>
+      </c>
+      <c r="B95" s="13">
+        <v>43579</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D95" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E95" s="10" t="s">
+      <c r="D95" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F95" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" s="10">
-        <v>120</v>
-      </c>
-      <c r="H95" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I95" s="10">
-        <v>2676</v>
-      </c>
-      <c r="J95" s="14">
+      <c r="F95" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="6">
+        <v>120</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="6">
+        <v>2676</v>
+      </c>
+      <c r="J95" s="8">
         <v>4</v>
       </c>
       <c r="K95" s="1">
@@ -5926,10 +6315,10 @@
       <c r="L95" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M95" s="3">
+      <c r="M95" s="9">
         <v>0.92190000000000005</v>
       </c>
-      <c r="N95" s="3">
+      <c r="N95" s="9">
         <v>0.92349999999999999</v>
       </c>
       <c r="O95" s="1">
@@ -5938,16 +6327,29 @@
       <c r="P95" s="1">
         <v>0.23549999999999999</v>
       </c>
-      <c r="Q95" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="R95" s="6">
+      <c r="Q95" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="R95" s="10">
         <v>0.92700000000000005</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF00FF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>